--- a/LOGS/712a6d97-dc33-4cb8-b5ca-e56dae5dd169/main_page_service_output/notes_cropped_df.xlsx
+++ b/LOGS/712a6d97-dc33-4cb8-b5ca-e56dae5dd169/main_page_service_output/notes_cropped_df.xlsx
@@ -7,16 +7,571 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3_8_5e8c1c01-326a-33" sheetId="1" r:id="rId1"/>
+    <sheet name="3_12_12a833d7-6726-3" sheetId="2" r:id="rId2"/>
+    <sheet name="3_18_9e7b0854-d3da-3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="180">
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Goodwill represents the</t>
+  </si>
+  <si>
+    <t>net identifiable</t>
+  </si>
+  <si>
+    <t>combination is events or</t>
+  </si>
+  <si>
+    <t>impairmentlosses. Gains and losses on disposalof an entity include the carrying</t>
+  </si>
+  <si>
+    <t>to the entity</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Costs incurred</t>
+  </si>
+  <si>
+    <t>financial benefits through revenue</t>
+  </si>
+  <si>
+    <t>systems. Costs capitalised include external direct</t>
+  </si>
+  <si>
+    <t>related costs of employees' time spent on the</t>
+  </si>
+  <si>
+    <t>depending on</t>
+  </si>
+  <si>
+    <t>Customer list and customer contract acquired</t>
+  </si>
+  <si>
+    <t>Customer lists</t>
+  </si>
+  <si>
+    <t>from goodwill. These</t>
+  </si>
+  <si>
+    <t>amortisation</t>
+  </si>
+  <si>
+    <t>customers and the timing of projected</t>
+  </si>
+  <si>
+    <t>5 to 15 years.</t>
+  </si>
+  <si>
+    <t>As a result of impairment testing</t>
+  </si>
+  <si>
+    <t>acquired in a business</t>
+  </si>
+  <si>
+    <t>or more frequently if</t>
+  </si>
+  <si>
+    <t>of impairment</t>
+  </si>
+  <si>
+    <t>contribute to future period</t>
+  </si>
+  <si>
+    <t>the useful life of the asset, over a</t>
+  </si>
+  <si>
+    <t>are recogniseds separately</t>
+  </si>
+  <si>
+    <t>anticipated relationship with</t>
+  </si>
+  <si>
+    <t>the Group's share of the</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>acquisition less accumulated</t>
+  </si>
+  <si>
+    <t>excess of the</t>
+  </si>
+  <si>
+    <t>of the acquired</t>
+  </si>
+  <si>
+    <t>at cost less accumulated</t>
+  </si>
+  <si>
+    <t>testing.</t>
+  </si>
+  <si>
+    <t>capitalised to software and</t>
+  </si>
+  <si>
+    <t>and customer contracts</t>
+  </si>
+  <si>
+    <t>and impairment losses.</t>
+  </si>
+  <si>
+    <t>estimated useful lives, being</t>
+  </si>
+  <si>
+    <t>been recognised</t>
+  </si>
+  <si>
+    <t>cost of an</t>
+  </si>
+  <si>
+    <t>subsidiary</t>
+  </si>
+  <si>
+    <t>not amortised. Instead goodwill</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>direct payroll and payroll</t>
+  </si>
+  <si>
+    <t>on a straight-line</t>
+  </si>
+  <si>
+    <t>period of 2 to 7 years.</t>
+  </si>
+  <si>
+    <t>Amortisation</t>
+  </si>
+  <si>
+    <t>as an</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>cash flows of</t>
+  </si>
+  <si>
+    <t>is tested</t>
+  </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>process at</t>
+  </si>
+  <si>
+    <t>acquisition over the fair</t>
+  </si>
+  <si>
+    <t>at the date of acquisition.</t>
+  </si>
+  <si>
+    <t>for impairment</t>
+  </si>
+  <si>
+    <t>in developing and acquiring software and licenses that</t>
+  </si>
+  <si>
+    <t>and/or cost reduction</t>
+  </si>
+  <si>
+    <t>of materials and</t>
+  </si>
+  <si>
+    <t>project.</t>
+  </si>
+  <si>
+    <t>assets are carried at their fair value at the date</t>
+  </si>
+  <si>
+    <t>contracts over</t>
+  </si>
+  <si>
+    <t>31 March</t>
+  </si>
+  <si>
+    <t>value of</t>
+  </si>
+  <si>
+    <t>annually</t>
+  </si>
+  <si>
+    <t>thatit might be impaired and is carried</t>
+  </si>
+  <si>
+    <t>amount of goodwillrelating</t>
+  </si>
+  <si>
+    <t>sold. Goodwill is allocated</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>service,</t>
+  </si>
+  <si>
+    <t>Amortisation is</t>
+  </si>
+  <si>
+    <t>acquired as part of a business combination</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>calculated based on the</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>2023, no amount</t>
+  </si>
+  <si>
+    <t>to one cash-generating unit for the purpose</t>
+  </si>
+  <si>
+    <t>calculated</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>Employment benefits</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Liabilities for employee</t>
+  </si>
+  <si>
+    <t>which the employees render the related service</t>
+  </si>
+  <si>
+    <t>the end of the reporting</t>
+  </si>
+  <si>
+    <t>are settled.</t>
+  </si>
+  <si>
+    <t>Long service leave and</t>
+  </si>
+  <si>
+    <t>months after the end of</t>
+  </si>
+  <si>
+    <t>for employee benefits</t>
+  </si>
+  <si>
+    <t>respect of services provided by employees up to the reporting date using</t>
+  </si>
+  <si>
+    <t>Significant Estimate: Employee benefits</t>
+  </si>
+  <si>
+    <t>Measurement of the employee benefits provision involves the use of various inputs including the use of</t>
+  </si>
+  <si>
+    <t>historical trends to estimate future</t>
+  </si>
+  <si>
+    <t>is given to expect future</t>
+  </si>
+  <si>
+    <t>of employee departures,</t>
+  </si>
+  <si>
+    <t>corporate bond rates at the reporting date with terms to maturity that</t>
+  </si>
+  <si>
+    <t>estimated future cash outflows.</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>The current portion of the employee</t>
+  </si>
+  <si>
+    <t>for which payment could be</t>
+  </si>
+  <si>
+    <t>the provision is presented as current since the Group does not have</t>
+  </si>
+  <si>
+    <t>settlement for any of these</t>
+  </si>
+  <si>
+    <t>The non-current portion of the employee benefits provision represents</t>
+  </si>
+  <si>
+    <t>company will not be required to pay</t>
+  </si>
+  <si>
+    <t>Non-Executive Director Retirement benefits</t>
+  </si>
+  <si>
+    <t>The retirement benefits</t>
+  </si>
+  <si>
+    <t>upon retirement from office.</t>
+  </si>
+  <si>
+    <t>Retirement benefits are measured at the undiscounted amount which the entity would be required to pay out in the event of the retirement of the relevant non-executive director. With exception of the company</t>
+  </si>
+  <si>
+    <t>chairman, the maximum</t>
+  </si>
+  <si>
+    <t>the three years up to and including</t>
+  </si>
+  <si>
+    <t>encapsulates</t>
+  </si>
+  <si>
+    <t>benefits expected to be settled within 12 months after the end of the period in</t>
+  </si>
+  <si>
+    <t>period and</t>
+  </si>
+  <si>
+    <t>annual leave obligations</t>
+  </si>
+  <si>
+    <t>the period inwhich the</t>
+  </si>
+  <si>
+    <t>and measured as the</t>
+  </si>
+  <si>
+    <t>wage and</t>
+  </si>
+  <si>
+    <t>and periods of service. Expected future payments are discounted using deep</t>
+  </si>
+  <si>
+    <t>required be</t>
+  </si>
+  <si>
+    <t>obligations.</t>
+  </si>
+  <si>
+    <t>provision</t>
+  </si>
+  <si>
+    <t>payable to</t>
+  </si>
+  <si>
+    <t>liabilities for employee bonuses, long service leave and annual leave.</t>
+  </si>
+  <si>
+    <t>are measured at the amounts expected to be paid when the liabilities</t>
+  </si>
+  <si>
+    <t>expectations. Invaluing the employee</t>
+  </si>
+  <si>
+    <t>salary levels,</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>to be paid out within the next twelve months.</t>
+  </si>
+  <si>
+    <t>out within</t>
+  </si>
+  <si>
+    <t>represents the amount payable to the</t>
+  </si>
+  <si>
+    <t>non-executive directors is the average</t>
+  </si>
+  <si>
+    <t>the year in which the director retires.</t>
+  </si>
+  <si>
+    <t>are recognisedinrespect</t>
+  </si>
+  <si>
+    <t>which are not expected</t>
+  </si>
+  <si>
+    <t>employees render the service is recognised in the provision</t>
+  </si>
+  <si>
+    <t>present value of expected</t>
+  </si>
+  <si>
+    <t>historical trend of employees taking</t>
+  </si>
+  <si>
+    <t>provision includes accruedannualleave</t>
+  </si>
+  <si>
+    <t>the next twelve months.</t>
+  </si>
+  <si>
+    <t>of the employees'</t>
+  </si>
+  <si>
+    <t>to be settled wholly within 12</t>
+  </si>
+  <si>
+    <t>future payments</t>
+  </si>
+  <si>
+    <t>the projected unit credit method.</t>
+  </si>
+  <si>
+    <t>benefits provision,</t>
+  </si>
+  <si>
+    <t>match, as</t>
+  </si>
+  <si>
+    <t>an unconditional</t>
+  </si>
+  <si>
+    <t>long service leave</t>
+  </si>
+  <si>
+    <t>Group's</t>
+  </si>
+  <si>
+    <t>of their annual directors' fees for</t>
+  </si>
+  <si>
+    <t>Directors</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>closely as possible, the</t>
+  </si>
+  <si>
+    <t>and long service leave</t>
+  </si>
+  <si>
+    <t>The entire amount of</t>
+  </si>
+  <si>
+    <t>non-executive directors</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>services up to</t>
+  </si>
+  <si>
+    <t>to be made in</t>
+  </si>
+  <si>
+    <t>consideration</t>
+  </si>
+  <si>
+    <t>and experience</t>
+  </si>
+  <si>
+    <t>right to defer</t>
+  </si>
+  <si>
+    <t>for which the</t>
+  </si>
+  <si>
+    <t>maintain their</t>
+  </si>
+  <si>
+    <t>3.18 RESERVES</t>
+  </si>
+  <si>
+    <t>Nature and purpose of reserves:</t>
+  </si>
+  <si>
+    <t>Share based payments reserve</t>
+  </si>
+  <si>
+    <t>The share-based payment reserve is used to recognise the fair value of options issued to employees.</t>
+  </si>
+  <si>
+    <t>Foreign currency translation reserve</t>
+  </si>
+  <si>
+    <t>The foreign currency translation</t>
+  </si>
+  <si>
+    <t>Foreign controlled entity.</t>
+  </si>
+  <si>
+    <t>Option Reserve</t>
+  </si>
+  <si>
+    <t>The option reserve</t>
+  </si>
+  <si>
+    <t>relation The option to reserve was used to recognise the value of the options on issue in part consideration for a previous acquisition. 3.19 SUBSIDIARIES</t>
+  </si>
+  <si>
+    <t>was used to recognise the value of the options on</t>
+  </si>
+  <si>
+    <t>reserve is</t>
+  </si>
+  <si>
+    <t>used for exchange differences</t>
+  </si>
+  <si>
+    <t>issue in</t>
+  </si>
+  <si>
+    <t>arising on translation of the</t>
+  </si>
+  <si>
+    <t>relation to</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +587,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +595,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +913,1464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>